--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_69__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_69__Reeval_LHS_Modell_1.2.xlsx
@@ -5891,7 +5891,7 @@
                   <c:v>48.13592147827148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.34061431884766</c:v>
+                  <c:v>91.34060668945312</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>48.13592147827148</c:v>
@@ -5918,7 +5918,7 @@
                   <c:v>90.27489471435547</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61.46759796142578</c:v>
+                  <c:v>61.46758651733398</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>48.13592147827148</c:v>
@@ -5927,7 +5927,7 @@
                   <c:v>48.13592147827148</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.32457542419434</c:v>
+                  <c:v>17.32456970214844</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>48.13592147827148</c:v>
@@ -5957,7 +5957,7 @@
                   <c:v>48.13592147827148</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>84.912841796875</c:v>
+                  <c:v>84.91282653808594</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>48.13592147827148</c:v>
@@ -5978,7 +5978,7 @@
                   <c:v>-1.713462471961975</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>78.4761962890625</c:v>
+                  <c:v>78.47618865966797</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>85.21286010742188</c:v>
@@ -6029,7 +6029,7 @@
                   <c:v>48.13592147827148</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>62.33819580078125</c:v>
+                  <c:v>62.33819198608398</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>48.13592147827148</c:v>
@@ -6050,7 +6050,7 @@
                   <c:v>69.56645965576172</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>64.35202789306641</c:v>
+                  <c:v>64.35203552246094</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>48.13592147827148</c:v>
@@ -6134,7 +6134,7 @@
                   <c:v>48.13592147827148</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>72.29957580566406</c:v>
+                  <c:v>72.29956817626953</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>48.13592147827148</c:v>
@@ -6152,7 +6152,7 @@
                   <c:v>64.24468231201172</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43.69419479370117</c:v>
+                  <c:v>43.69419860839844</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>48.13592147827148</c:v>
@@ -7051,7 +7051,7 @@
         <v>97.0509</v>
       </c>
       <c r="F8">
-        <v>91.34061431884766</v>
+        <v>91.34060668945312</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>34.5547</v>
       </c>
       <c r="F17">
-        <v>61.46759796142578</v>
+        <v>61.46758651733398</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>94.2979</v>
       </c>
       <c r="F20">
-        <v>17.32457542419434</v>
+        <v>17.32456970214844</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>98.30370000000001</v>
       </c>
       <c r="F30">
-        <v>84.912841796875</v>
+        <v>84.91282653808594</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>78.4761962890625</v>
+        <v>78.47618865966797</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>97.46850000000001</v>
       </c>
       <c r="F54">
-        <v>62.33819580078125</v>
+        <v>62.33819198608398</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>94.23860000000001</v>
       </c>
       <c r="F61">
-        <v>64.35202789306641</v>
+        <v>64.35203552246094</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>94.4674</v>
       </c>
       <c r="F89">
-        <v>72.29957580566406</v>
+        <v>72.29956817626953</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>43.69419479370117</v>
+        <v>43.69419860839844</v>
       </c>
     </row>
     <row r="96" spans="1:6">
